--- a/code/output/mxl_model_WTP_vehicle.xlsx
+++ b/code/output/mxl_model_WTP_vehicle.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8BE142-B614-9B45-963E-81DC798CA9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D5D74C-D2F3-5943-BADE-EF6DC79F4B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="980" windowWidth="29120" windowHeight="16960" activeTab="2" xr2:uid="{A9909137-D575-224B-A76F-FCE69DCC6739}"/>
+    <workbookView xWindow="0" yWindow="980" windowWidth="29120" windowHeight="16960" xr2:uid="{A9909137-D575-224B-A76F-FCE69DCC6739}"/>
   </bookViews>
   <sheets>
     <sheet name="MNL (Preference space)" sheetId="4" r:id="rId1"/>
     <sheet name="MNL (WTP space)" sheetId="1" r:id="rId2"/>
     <sheet name="MNL WTP compare" sheetId="5" r:id="rId3"/>
+    <sheet name="MNL_Attitude1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
   <si>
     <t>pref</t>
   </si>
@@ -341,6 +342,33 @@
       </rPr>
       <t xml:space="preserve"> to accept HEV relative to conventional vehicles</t>
     </r>
+  </si>
+  <si>
+    <t>Log-Likelihood:         -2476.7438484</t>
+  </si>
+  <si>
+    <t>Null Log-Likelihood:    -2778.1338997</t>
+  </si>
+  <si>
+    <t>AIC:                     4977.4876968</t>
+  </si>
+  <si>
+    <t>BIC:                     5044.7225000</t>
+  </si>
+  <si>
+    <t>McFadden R2:                0.1084865</t>
+  </si>
+  <si>
+    <t>Adj McFadden R2:            0.1041671</t>
+  </si>
+  <si>
+    <t>Number of Observations:  2004.0000000</t>
+  </si>
+  <si>
+    <t>FA_EV_benefit</t>
+  </si>
+  <si>
+    <t>FA_EV_anxiety</t>
   </si>
 </sst>
 </file>
@@ -402,11 +430,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +450,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -747,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5873D6C5-CA58-9948-87F6-3771A0BD0381}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1031,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98044D3-FF48-F949-BEDB-50C8FB71579F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1343,7 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482B3222-C801-E043-841A-9324DF72711D}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+    <sheetView zoomScale="140" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1522,4 +1546,323 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE7ACB3-800E-AA4E-B641-3F42496B0B95}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.34049299999999999</v>
+      </c>
+      <c r="C2">
+        <v>3.9920999999999998E-2</v>
+      </c>
+      <c r="D2">
+        <v>8.5290999999999997</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>-0.51632800000000001</v>
+      </c>
+      <c r="C3">
+        <v>9.2555999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>-5.5785</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.4249999999999999E-8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>-0.320108</v>
+      </c>
+      <c r="C4">
+        <v>4.8777000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>-6.5627000000000004</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.283E-11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>-0.11536299999999999</v>
+      </c>
+      <c r="C5">
+        <v>2.9430999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>-3.9197000000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8.8640000000000005E-5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0.50447600000000004</v>
+      </c>
+      <c r="C6">
+        <v>0.286053</v>
+      </c>
+      <c r="D6">
+        <v>1.7636000000000001</v>
+      </c>
+      <c r="E6">
+        <v>7.7802999999999997E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>-4.2243000000000003E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.17754900000000001</v>
+      </c>
+      <c r="D7">
+        <v>-0.2379</v>
+      </c>
+      <c r="E7">
+        <v>0.81194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>-4.4082660000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.74070899999999995</v>
+      </c>
+      <c r="D8">
+        <v>-5.9513999999999996</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.6580000000000001E-9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>-3.1434690000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.64264399999999999</v>
+      </c>
+      <c r="D9">
+        <v>-4.8914999999999997</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.001E-6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>-0.61082700000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.247866</v>
+      </c>
+      <c r="D10">
+        <v>-2.4643000000000002</v>
+      </c>
+      <c r="E10">
+        <v>1.3726E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>-11.094199</v>
+      </c>
+      <c r="C11">
+        <v>1.0988500000000001</v>
+      </c>
+      <c r="D11">
+        <v>-10.0962</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>1.295941</v>
+      </c>
+      <c r="C12">
+        <v>0.20138500000000001</v>
+      </c>
+      <c r="D12">
+        <v>6.4351000000000003</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.2340000000000001E-10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>-0.55992600000000003</v>
+      </c>
+      <c r="C13">
+        <v>0.16600999999999999</v>
+      </c>
+      <c r="D13">
+        <v>-3.3727999999999998</v>
+      </c>
+      <c r="E13">
+        <v>7.4399999999999998E-4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>